--- a/biology/Zoologie/Conus_simonis/Conus_simonis.xlsx
+++ b/biology/Zoologie/Conus_simonis/Conus_simonis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus simonis est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus simonis a été décrite pour la première fois en 2010 par le malacologiste italien Luigi Bozzetti (d) dans « Malacologia Mostra Mondiale »[1],[2].
-Synonymes
-Conus (Pionoconus) atimovatae (Bozzetti, 2012) · non accepté
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus simonis a été décrite pour la première fois en 2010 par le malacologiste italien Luigi Bozzetti (d) dans « Malacologia Mostra Mondiale »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conus_simonis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_simonis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Conus (Pionoconus) atimovatae (Bozzetti, 2012) · non accepté
 Conus (Pionoconus) simonis Bozzetti, 2010 · appellation alternative
 Conus atimovatae (Bozzetti, 2012) · non accepté
 Pionoconus atimovatae Bozzetti, 2012 · non accepté (combinaison originale)</t>
